--- a/data/trans_orig/P1001-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1001-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>29865</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>21059</v>
+        <v>21495</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>42240</v>
+        <v>41584</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04303181882902785</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03034391625168741</v>
+        <v>0.03097278176295628</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06086388985615374</v>
+        <v>0.05991791319461138</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>46</v>
@@ -765,19 +765,19 @@
         <v>45715</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>34085</v>
+        <v>34332</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>60114</v>
+        <v>61919</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06641182968194881</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04951694830247164</v>
+        <v>0.04987628907747084</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08733095382424454</v>
+        <v>0.08995279118459454</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>77</v>
@@ -786,19 +786,19 @@
         <v>75579</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>60381</v>
+        <v>59451</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>94186</v>
+        <v>93046</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05467395097884045</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04367988712284784</v>
+        <v>0.0430069806661103</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06813400824128145</v>
+        <v>0.06730972214247528</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>664147</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>651772</v>
+        <v>652428</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>672953</v>
+        <v>672517</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9569681811709722</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9391361101438462</v>
+        <v>0.9400820868053886</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9696560837483126</v>
+        <v>0.9690272182370437</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>650</v>
@@ -836,19 +836,19 @@
         <v>642636</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>628237</v>
+        <v>626432</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>654266</v>
+        <v>654019</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9335881703180512</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9126690461757556</v>
+        <v>0.9100472088154041</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9504830516975286</v>
+        <v>0.9501237109225291</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1302</v>
@@ -857,19 +857,19 @@
         <v>1306784</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1288177</v>
+        <v>1289317</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1321982</v>
+        <v>1322912</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9453260490211596</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9318659917587185</v>
+        <v>0.9326902778575248</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9563201128771521</v>
+        <v>0.9569930193338898</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>57591</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>42540</v>
+        <v>44081</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>73583</v>
+        <v>71927</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05987878292167336</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04422936855016962</v>
+        <v>0.04583217243187399</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07650527844465757</v>
+        <v>0.07478373101078833</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>65</v>
@@ -982,19 +982,19 @@
         <v>73651</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>56475</v>
+        <v>57759</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>93464</v>
+        <v>92467</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07605506035208143</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05831851305074304</v>
+        <v>0.05964416654944564</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09651490730035923</v>
+        <v>0.09548501828472911</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>120</v>
@@ -1003,19 +1003,19 @@
         <v>131243</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>111606</v>
+        <v>109544</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>155080</v>
+        <v>156988</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06799454867959072</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05782134827284242</v>
+        <v>0.05675296078985165</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08034405180708357</v>
+        <v>0.08133300837779836</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>904209</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>888217</v>
+        <v>889873</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>919260</v>
+        <v>917719</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9401212170783266</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9234947215553424</v>
+        <v>0.9252162689892117</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9557706314498304</v>
+        <v>0.954167827568126</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>843</v>
@@ -1053,19 +1053,19 @@
         <v>894742</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>874929</v>
+        <v>875926</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>911918</v>
+        <v>910634</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9239449396479186</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9034850926996407</v>
+        <v>0.9045149817152707</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9416814869492569</v>
+        <v>0.9403558334505544</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1684</v>
@@ -1074,19 +1074,19 @@
         <v>1798950</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1775113</v>
+        <v>1773205</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1818587</v>
+        <v>1820649</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9320054513204092</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9196559481929165</v>
+        <v>0.9186669916222017</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9421786517271576</v>
+        <v>0.9432470392101484</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>49652</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>36423</v>
+        <v>36635</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>64687</v>
+        <v>65369</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07317756349741553</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05368140294178866</v>
+        <v>0.05399306540774515</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09533701083578672</v>
+        <v>0.09634223218266035</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>93</v>
@@ -1199,19 +1199,19 @@
         <v>91161</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>74270</v>
+        <v>73164</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>109296</v>
+        <v>109907</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1333071242348338</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1086070998215311</v>
+        <v>0.1069891666736603</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1598271744907788</v>
+        <v>0.1607199982376827</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>141</v>
@@ -1220,19 +1220,19 @@
         <v>140813</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>119115</v>
+        <v>117421</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>166748</v>
+        <v>162520</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1033600148450788</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08743331949116316</v>
+        <v>0.08619039865612306</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1223976878811855</v>
+        <v>0.119294005335718</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>628857</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>613822</v>
+        <v>613140</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>642086</v>
+        <v>641874</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9268224365025844</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9046629891642133</v>
+        <v>0.9036577678173396</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9463185970582114</v>
+        <v>0.9460069345922548</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>603</v>
@@ -1270,19 +1270,19 @@
         <v>592680</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>574545</v>
+        <v>573934</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>609571</v>
+        <v>610677</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8666928757651662</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8401728255092211</v>
+        <v>0.8392800017623171</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8913929001784688</v>
+        <v>0.8930108333263396</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1196</v>
@@ -1291,19 +1291,19 @@
         <v>1221537</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1195602</v>
+        <v>1199830</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1243235</v>
+        <v>1244929</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8966399851549212</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8776023121188145</v>
+        <v>0.8807059946642819</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9125666805088367</v>
+        <v>0.9138096013438769</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>61131</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>47117</v>
+        <v>47361</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>77575</v>
+        <v>78057</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06487942757002513</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05000646991911181</v>
+        <v>0.05026490959062454</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08233178590267073</v>
+        <v>0.08284300650483524</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>104</v>
@@ -1416,19 +1416,19 @@
         <v>107748</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>88990</v>
+        <v>88543</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>127912</v>
+        <v>127316</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1037425773723698</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08568189645283672</v>
+        <v>0.08525163790465888</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1231567989603468</v>
+        <v>0.1225826243094392</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>166</v>
@@ -1437,19 +1437,19 @@
         <v>168879</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>147408</v>
+        <v>146004</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>196371</v>
+        <v>195974</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08525656761929351</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07441729722968861</v>
+        <v>0.07370813889037571</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09913536003791863</v>
+        <v>0.09893528909594075</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>881091</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>864647</v>
+        <v>864165</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>895105</v>
+        <v>894861</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9351205724299749</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9176682140973291</v>
+        <v>0.9171569934951647</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9499935300808879</v>
+        <v>0.9497350904093754</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>893</v>
@@ -1487,19 +1487,19 @@
         <v>930864</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>910700</v>
+        <v>911296</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>949622</v>
+        <v>950069</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8962574226276302</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8768432010396531</v>
+        <v>0.8774173756905603</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9143181035471631</v>
+        <v>0.9147483620953412</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1825</v>
@@ -1508,19 +1508,19 @@
         <v>1811955</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1784463</v>
+        <v>1784860</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1833426</v>
+        <v>1834830</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9147434323807064</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9008646399620813</v>
+        <v>0.9010647109040593</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9255827027703115</v>
+        <v>0.9262918611096242</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>198238</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>172582</v>
+        <v>171273</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>226505</v>
+        <v>225623</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06050232505040523</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05267195587884388</v>
+        <v>0.05227240151528485</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06912925252787379</v>
+        <v>0.0688601605854352</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>308</v>
@@ -1633,19 +1633,19 @@
         <v>318275</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>286132</v>
+        <v>287723</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>352710</v>
+        <v>355653</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09418657804059452</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0846746605406602</v>
+        <v>0.08514528957696474</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.104376920821613</v>
+        <v>0.1052476433582234</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>504</v>
@@ -1654,19 +1654,19 @@
         <v>516514</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>474902</v>
+        <v>470017</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>561803</v>
+        <v>559622</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0776042139872592</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07135228189787658</v>
+        <v>0.07061828985087525</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08440880002483227</v>
+        <v>0.08408111226743126</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3078305</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3050038</v>
+        <v>3050920</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3103961</v>
+        <v>3105270</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9394976749495948</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9308707474721263</v>
+        <v>0.9311398394145648</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9473280441211561</v>
+        <v>0.9477275984847151</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2989</v>
@@ -1704,19 +1704,19 @@
         <v>3060922</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3026487</v>
+        <v>3023544</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3093065</v>
+        <v>3091474</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9058134219594055</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8956230791783869</v>
+        <v>0.8947523566417767</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9153253394593398</v>
+        <v>0.9148547104230352</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6007</v>
@@ -1725,19 +1725,19 @@
         <v>6139227</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6093938</v>
+        <v>6096119</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6180839</v>
+        <v>6185724</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9223957860127407</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9155911999751678</v>
+        <v>0.9159188877325688</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9286477181021235</v>
+        <v>0.9293817101491247</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>47701</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>34939</v>
+        <v>35062</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>62046</v>
+        <v>64051</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06780813640589779</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04966608487570651</v>
+        <v>0.04984137396289725</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0881995384450821</v>
+        <v>0.09105000004507563</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>100</v>
@@ -2090,19 +2090,19 @@
         <v>104901</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>87206</v>
+        <v>85975</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>127105</v>
+        <v>123821</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1504925913681152</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1251074775995941</v>
+        <v>0.1233412989319644</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1823467006124292</v>
+        <v>0.1776357801775996</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>146</v>
@@ -2111,19 +2111,19 @@
         <v>152602</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>131364</v>
+        <v>129515</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>177706</v>
+        <v>175727</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1089608806204444</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09379677651908917</v>
+        <v>0.09247611756810627</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.126886013666862</v>
+        <v>0.1254730545095107</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>655768</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>641423</v>
+        <v>639418</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>668530</v>
+        <v>668407</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9321918635941022</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9118004615549178</v>
+        <v>0.9089499999549243</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9503339151242934</v>
+        <v>0.9501586260371027</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>550</v>
@@ -2161,19 +2161,19 @@
         <v>592149</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>569945</v>
+        <v>573229</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>609844</v>
+        <v>611075</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8495074086318848</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8176532993875708</v>
+        <v>0.8223642198224004</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8748925224004059</v>
+        <v>0.8766587010680357</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1178</v>
@@ -2182,19 +2182,19 @@
         <v>1247917</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1222813</v>
+        <v>1224792</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1269155</v>
+        <v>1271004</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8910391193795556</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8731139863331379</v>
+        <v>0.8745269454904894</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9062032234809108</v>
+        <v>0.9075238824318939</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>83373</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>66537</v>
+        <v>65817</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>103859</v>
+        <v>102343</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08198802086317221</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06543179213306044</v>
+        <v>0.06472320313454293</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1021337235478816</v>
+        <v>0.1006426857851887</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>147</v>
@@ -2307,19 +2307,19 @@
         <v>162821</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>138599</v>
+        <v>139041</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>186261</v>
+        <v>187629</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1577446313808193</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1342772791114453</v>
+        <v>0.1347051949288743</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1804536915126253</v>
+        <v>0.1817791133738081</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>221</v>
@@ -2328,19 +2328,19 @@
         <v>246195</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>217587</v>
+        <v>214601</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>278355</v>
+        <v>279348</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1201489818682793</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1061880245442415</v>
+        <v>0.1047305153724596</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1358441536645909</v>
+        <v>0.1363285854300871</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>933520</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>913034</v>
+        <v>914550</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>950356</v>
+        <v>951076</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9180119791368277</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8978662764521184</v>
+        <v>0.8993573142148115</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9345682078669396</v>
+        <v>0.9352767968654571</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>793</v>
@@ -2378,19 +2378,19 @@
         <v>869363</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>845923</v>
+        <v>844555</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>893585</v>
+        <v>893143</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8422553686191807</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8195463084873745</v>
+        <v>0.8182208866261917</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8657227208885546</v>
+        <v>0.8652948050711257</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1654</v>
@@ -2399,19 +2399,19 @@
         <v>1802882</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1770722</v>
+        <v>1769729</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1831490</v>
+        <v>1834476</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8798510181317207</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.864155846335409</v>
+        <v>0.8636714145699129</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8938119754557583</v>
+        <v>0.8952694846275404</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>41168</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>29206</v>
+        <v>28604</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>58901</v>
+        <v>57043</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05433801622509048</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03854975402245427</v>
+        <v>0.03775448969056314</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07774409906482013</v>
+        <v>0.07529206377188745</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>94</v>
@@ -2524,19 +2524,19 @@
         <v>102244</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>84007</v>
+        <v>85235</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>122995</v>
+        <v>124605</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1317372713997574</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1082404341906248</v>
+        <v>0.109821739716497</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1584740349859409</v>
+        <v>0.1605493132036422</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>128</v>
@@ -2545,19 +2545,19 @@
         <v>143412</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>119562</v>
+        <v>121672</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>171323</v>
+        <v>168807</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09350433393539453</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07795441308464654</v>
+        <v>0.07933031936063592</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1117024015630485</v>
+        <v>0.1100619226513544</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>716455</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>698722</v>
+        <v>700580</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>728417</v>
+        <v>729019</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9456619837749095</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.92225590093518</v>
+        <v>0.9247079362281124</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9614502459775458</v>
+        <v>0.9622455103094368</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>610</v>
@@ -2595,19 +2595,19 @@
         <v>673875</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>653124</v>
+        <v>651514</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>692112</v>
+        <v>690884</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8682627286002427</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8415259650140589</v>
+        <v>0.8394506867963579</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8917595658093752</v>
+        <v>0.890178260283503</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1265</v>
@@ -2616,19 +2616,19 @@
         <v>1390330</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1362419</v>
+        <v>1364935</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1414180</v>
+        <v>1412070</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9064956660646055</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8882975984369514</v>
+        <v>0.8899380773486454</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9220455869153534</v>
+        <v>0.9206696806393639</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>70421</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>55554</v>
+        <v>54731</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>88972</v>
+        <v>88364</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07437758565696466</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0586756534883331</v>
+        <v>0.05780637668136978</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09397134004188559</v>
+        <v>0.09332918775648674</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>142</v>
@@ -2741,19 +2741,19 @@
         <v>150778</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>129767</v>
+        <v>128359</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>175976</v>
+        <v>175763</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1434675651256961</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1234755552016136</v>
+        <v>0.1221358671679563</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1674439462294249</v>
+        <v>0.1672413206974429</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>208</v>
@@ -2762,19 +2762,19 @@
         <v>221199</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>194056</v>
+        <v>193360</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>255040</v>
+        <v>251186</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1107235847507287</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09713698540307143</v>
+        <v>0.09678862977327574</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1276632947916483</v>
+        <v>0.1257339660976128</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>876381</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>857830</v>
+        <v>858438</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>891248</v>
+        <v>892071</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9256224143430354</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9060286599581143</v>
+        <v>0.9066708122435132</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.941324346511667</v>
+        <v>0.9421936233186301</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>860</v>
@@ -2812,19 +2812,19 @@
         <v>900178</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>874980</v>
+        <v>875193</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>921189</v>
+        <v>922597</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.856532434874304</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8325560537705753</v>
+        <v>0.8327586793025572</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8765244447983868</v>
+        <v>0.8778641328320437</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1703</v>
@@ -2833,19 +2833,19 @@
         <v>1776559</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1742718</v>
+        <v>1746572</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1803702</v>
+        <v>1804398</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8892764152492713</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8723367052083514</v>
+        <v>0.8742660339023872</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9028630145969284</v>
+        <v>0.9032113702267245</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>242663</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>211831</v>
+        <v>212676</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>277517</v>
+        <v>276590</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07085478446367585</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06185224740457211</v>
+        <v>0.06209904754070825</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08103173190313216</v>
+        <v>0.08076124227616446</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>483</v>
@@ -2958,19 +2958,19 @@
         <v>520744</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>480618</v>
+        <v>472605</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>567174</v>
+        <v>562709</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1464282888609935</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1351450546101484</v>
+        <v>0.1328920882567099</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1594838828747832</v>
+        <v>0.1582282432118647</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>703</v>
@@ -2979,19 +2979,19 @@
         <v>763407</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>710302</v>
+        <v>708562</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>821464</v>
+        <v>817019</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.109353423541937</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1017464252094645</v>
+        <v>0.10149722128998</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1176697260291787</v>
+        <v>0.1170330096461511</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3182125</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3147271</v>
+        <v>3148198</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3212957</v>
+        <v>3212112</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9291452155363241</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.918968268096868</v>
+        <v>0.9192387577238356</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9381477525954279</v>
+        <v>0.9379009524592917</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2813</v>
@@ -3029,19 +3029,19 @@
         <v>3035565</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2989135</v>
+        <v>2993600</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3075691</v>
+        <v>3083704</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8535717111390065</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8405161171252167</v>
+        <v>0.8417717567881352</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8648549453898514</v>
+        <v>0.86710791174329</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5800</v>
@@ -3050,19 +3050,19 @@
         <v>6217690</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6159633</v>
+        <v>6164078</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6270795</v>
+        <v>6272535</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.890646576458063</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8823302739708214</v>
+        <v>0.8829669903538488</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8982535747905356</v>
+        <v>0.8985027787100199</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>39383</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>29010</v>
+        <v>28037</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>53815</v>
+        <v>52643</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05836290192610977</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04298987391277209</v>
+        <v>0.04154900242654988</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07975022568757088</v>
+        <v>0.07801306365024144</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>80</v>
@@ -3415,19 +3415,19 @@
         <v>84940</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>68511</v>
+        <v>68738</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>104342</v>
+        <v>103285</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1262417101963868</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1018242809732618</v>
+        <v>0.1021611278919791</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.155077368604524</v>
+        <v>0.1535059669788621</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>118</v>
@@ -3436,19 +3436,19 @@
         <v>124324</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>103529</v>
+        <v>105048</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>148054</v>
+        <v>148299</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09225291951356705</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07682230896587718</v>
+        <v>0.07794995306852344</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1098615909437359</v>
+        <v>0.1100437755803765</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>635417</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>620985</v>
+        <v>622157</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>645790</v>
+        <v>646763</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9416370980738903</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9202497743124289</v>
+        <v>0.9219869363497585</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9570101260872279</v>
+        <v>0.9584509975734499</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>586</v>
@@ -3486,19 +3486,19 @@
         <v>587899</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>568497</v>
+        <v>569554</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>604328</v>
+        <v>604101</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8737582898036133</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.844922631395476</v>
+        <v>0.8464940330211379</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8981757190267382</v>
+        <v>0.8978388721080209</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1200</v>
@@ -3507,19 +3507,19 @@
         <v>1223315</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1199585</v>
+        <v>1199340</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1244110</v>
+        <v>1242591</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9077470804864329</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8901384090562641</v>
+        <v>0.8899562244196241</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9231776910341227</v>
+        <v>0.9220500469314766</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>50812</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>36560</v>
+        <v>37938</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>64987</v>
+        <v>66913</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.049697698191285</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03575760800053158</v>
+        <v>0.03710567023790311</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06356109632426959</v>
+        <v>0.06544530041276221</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>109</v>
@@ -3632,19 +3632,19 @@
         <v>126107</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>105001</v>
+        <v>106679</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>150003</v>
+        <v>151757</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1209181825273362</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1006807758204847</v>
+        <v>0.1022889824112614</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1438303881249096</v>
+        <v>0.1455121443235155</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>158</v>
@@ -3653,19 +3653,19 @@
         <v>176920</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>151618</v>
+        <v>151353</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>203844</v>
+        <v>204002</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08566108702384312</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07341045500788032</v>
+        <v>0.07328225254079515</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09869760145361589</v>
+        <v>0.09877370296601429</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>971619</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>957444</v>
+        <v>955518</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>985871</v>
+        <v>984493</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.950302301808715</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9364389036757305</v>
+        <v>0.9345546995872381</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9642423919994692</v>
+        <v>0.962894329762097</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>868</v>
@@ -3703,19 +3703,19 @@
         <v>916806</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>892910</v>
+        <v>891156</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>937912</v>
+        <v>936234</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8790818174726638</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8561696118750904</v>
+        <v>0.8544878556764847</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8993192241795155</v>
+        <v>0.8977110175887386</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1770</v>
@@ -3724,19 +3724,19 @@
         <v>1888424</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1861500</v>
+        <v>1861342</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1913726</v>
+        <v>1913991</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9143389129761569</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9013023985463841</v>
+        <v>0.9012262970339855</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9265895449921197</v>
+        <v>0.9267177474592047</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>45020</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>32650</v>
+        <v>32932</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>61638</v>
+        <v>62236</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05927196336435808</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04298572056421451</v>
+        <v>0.04335749219356643</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0811509383766873</v>
+        <v>0.08193823641717886</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>92</v>
@@ -3849,19 +3849,19 @@
         <v>102398</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>83451</v>
+        <v>83362</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>124246</v>
+        <v>123232</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1304410148648981</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.106304934066079</v>
+        <v>0.1061918107607003</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.158273504729961</v>
+        <v>0.1569807630764248</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>131</v>
@@ -3870,19 +3870,19 @@
         <v>147418</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>125447</v>
+        <v>124280</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>175986</v>
+        <v>171834</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09544301957987902</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08121847379544685</v>
+        <v>0.08046320291306644</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1139391144613897</v>
+        <v>0.1112508172009948</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>714532</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>697914</v>
+        <v>697316</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>726902</v>
+        <v>726620</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9407280366356419</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9188490616233127</v>
+        <v>0.918061763582821</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9570142794357855</v>
+        <v>0.9566425078064333</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>644</v>
@@ -3920,19 +3920,19 @@
         <v>682613</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>660765</v>
+        <v>661779</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>701560</v>
+        <v>701649</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.869558985135102</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8417264952700388</v>
+        <v>0.8430192369235753</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8936950659339209</v>
+        <v>0.8938081892392997</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1301</v>
@@ -3941,19 +3941,19 @@
         <v>1397145</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1368577</v>
+        <v>1372729</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1419116</v>
+        <v>1420283</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.904556980420121</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8860608855386104</v>
+        <v>0.8887491827990053</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9187815262045531</v>
+        <v>0.9195367970869336</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>70759</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>56929</v>
+        <v>55854</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>90361</v>
+        <v>89014</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07547102265906556</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06072023079720389</v>
+        <v>0.05957308423490335</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09637804447592072</v>
+        <v>0.0949419489227333</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>105</v>
@@ -4066,19 +4066,19 @@
         <v>118814</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>98371</v>
+        <v>100113</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>142671</v>
+        <v>140871</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1138301483201552</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09424504559453742</v>
+        <v>0.09591395451612539</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1366866682838138</v>
+        <v>0.1349623621602618</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>174</v>
@@ -4087,19 +4087,19 @@
         <v>189573</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>165290</v>
+        <v>162680</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>217989</v>
+        <v>215465</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09567872493372231</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08342317737190405</v>
+        <v>0.08210557225930845</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1100206647450153</v>
+        <v>0.1087467918736884</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>866808</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>847206</v>
+        <v>848553</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>880638</v>
+        <v>881713</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9245289773409344</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9036219555240792</v>
+        <v>0.9050580510772668</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.939279769202796</v>
+        <v>0.9404269157650967</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>854</v>
@@ -4137,19 +4137,19 @@
         <v>924965</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>901108</v>
+        <v>902908</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>945408</v>
+        <v>943666</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8861698516798447</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8633133317161861</v>
+        <v>0.8650376378397375</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9057549544054626</v>
+        <v>0.9040860454838746</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1717</v>
@@ -4158,19 +4158,19 @@
         <v>1791773</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1763357</v>
+        <v>1765881</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1816056</v>
+        <v>1818666</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9043212750662777</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8899793352549845</v>
+        <v>0.8912532081263116</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9165768226280959</v>
+        <v>0.917894427740692</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>205975</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>180179</v>
+        <v>177138</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>239070</v>
+        <v>234225</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06068173036960494</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05308202963644859</v>
+        <v>0.05218621363497108</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0704316135563418</v>
+        <v>0.06900440433799734</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>386</v>
@@ -4283,19 +4283,19 @@
         <v>432259</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>394496</v>
+        <v>390202</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>475555</v>
+        <v>477339</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1219504919011357</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1112968044537273</v>
+        <v>0.1100852129923712</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1341653060517832</v>
+        <v>0.1346688398454618</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>581</v>
@@ -4304,19 +4304,19 @@
         <v>638234</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>585778</v>
+        <v>590409</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>688745</v>
+        <v>687499</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09197918935397437</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08441959689155042</v>
+        <v>0.08508695632309336</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09925869205533623</v>
+        <v>0.09907903462254825</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3188375</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3155280</v>
+        <v>3160125</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3214171</v>
+        <v>3217212</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9393182696303951</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9295683864436581</v>
+        <v>0.9309955956620025</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9469179703635514</v>
+        <v>0.9478137863650289</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2952</v>
@@ -4354,19 +4354,19 @@
         <v>3112283</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3068987</v>
+        <v>3067203</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3150046</v>
+        <v>3154340</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8780495080988643</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8658346939482168</v>
+        <v>0.8653311601545383</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8887031955462728</v>
+        <v>0.8899147870076288</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5988</v>
@@ -4375,19 +4375,19 @@
         <v>6300658</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6250147</v>
+        <v>6251393</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6353114</v>
+        <v>6348483</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9080208106460256</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9007413079446637</v>
+        <v>0.9009209653774518</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9155804031084491</v>
+        <v>0.9149130436769066</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>38128</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>28204</v>
+        <v>27945</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>51273</v>
+        <v>51744</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.05520161160938476</v>
+        <v>0.05520161160938475</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04083361238486646</v>
+        <v>0.04045816748432718</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07423262258521753</v>
+        <v>0.07491428002366211</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>144</v>
@@ -4740,19 +4740,19 @@
         <v>78760</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>67338</v>
+        <v>65841</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>93264</v>
+        <v>92059</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1075201281444001</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09192769338694116</v>
+        <v>0.08988398513210133</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1273213826474635</v>
+        <v>0.1256761945330376</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>187</v>
@@ -4761,19 +4761,19 @@
         <v>116888</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>99525</v>
+        <v>101462</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>134671</v>
+        <v>138377</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08212921125702664</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06992970736314304</v>
+        <v>0.07129031953792665</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09462374402620584</v>
+        <v>0.09722824427286807</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>652582</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>639437</v>
+        <v>638966</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>662506</v>
+        <v>662765</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9447983883906153</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9257673774147825</v>
+        <v>0.925085719976338</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9591663876151334</v>
+        <v>0.959541832515673</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1093</v>
@@ -4811,19 +4811,19 @@
         <v>653752</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>639248</v>
+        <v>640453</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>665174</v>
+        <v>666671</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8924798718555998</v>
+        <v>0.8924798718556</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8726786173525367</v>
+        <v>0.8743238054669624</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9080723066130592</v>
+        <v>0.9101160148678987</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1780</v>
@@ -4832,19 +4832,19 @@
         <v>1306334</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1288551</v>
+        <v>1284845</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1323697</v>
+        <v>1321760</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9178707887429732</v>
+        <v>0.9178707887429733</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9053762559737939</v>
+        <v>0.9027717557271319</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9300702926368568</v>
+        <v>0.9287096804620734</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>55324</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>42317</v>
+        <v>42747</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>71207</v>
+        <v>72145</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05274394731022836</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04034352497986558</v>
+        <v>0.04075305816124282</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0678861922863046</v>
+        <v>0.06878087953629884</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>181</v>
@@ -4957,19 +4957,19 @@
         <v>118878</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>102927</v>
+        <v>102787</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>138266</v>
+        <v>137476</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1110853357350284</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09618033207062722</v>
+        <v>0.09604921234309186</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1292031612856577</v>
+        <v>0.1284648389781984</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>242</v>
@@ -4978,19 +4978,19 @@
         <v>174202</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>153355</v>
+        <v>153658</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>199774</v>
+        <v>201348</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.08220689396879984</v>
+        <v>0.08220689396879986</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07236923404853203</v>
+        <v>0.07251228120877447</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09427446807781878</v>
+        <v>0.09501738083247331</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>993593</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>977710</v>
+        <v>976772</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1006600</v>
+        <v>1006170</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9472560526897718</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9321138077136961</v>
+        <v>0.9312191204637009</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9596564750201345</v>
+        <v>0.9592469418387572</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1334</v>
@@ -5028,19 +5028,19 @@
         <v>951269</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>931881</v>
+        <v>932671</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>967220</v>
+        <v>967360</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8889146642649716</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8707968387143421</v>
+        <v>0.8715351610218015</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9038196679293727</v>
+        <v>0.9039507876569082</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2237</v>
@@ -5049,19 +5049,19 @@
         <v>1944863</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1919291</v>
+        <v>1917717</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1965710</v>
+        <v>1965407</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9177931060312</v>
+        <v>0.9177931060312001</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9057255319221813</v>
+        <v>0.9049826191675266</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9276307659514681</v>
+        <v>0.9274877187912254</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>64801</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>49751</v>
+        <v>49301</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>86048</v>
+        <v>85764</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08069156055526164</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06195118239228224</v>
+        <v>0.06139018197339028</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1071485812047639</v>
+        <v>0.1067945232702237</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>125</v>
@@ -5174,19 +5174,19 @@
         <v>97504</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>82341</v>
+        <v>80331</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>117929</v>
+        <v>115033</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.1200400342252252</v>
+        <v>0.1200400342252251</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1013725747416253</v>
+        <v>0.09889789987987167</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1451866193076086</v>
+        <v>0.1416205943799445</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>182</v>
@@ -5195,19 +5195,19 @@
         <v>162305</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>137705</v>
+        <v>138437</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>188423</v>
+        <v>189839</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1004776762624029</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08524876924438461</v>
+        <v>0.08570172482215417</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1166466190297713</v>
+        <v>0.1175235089332981</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>738272</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>717025</v>
+        <v>717309</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>753322</v>
+        <v>753772</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9193084394447384</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8928514187952361</v>
+        <v>0.8932054767297761</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9380488176077176</v>
+        <v>0.9386098180266097</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>922</v>
@@ -5245,19 +5245,19 @@
         <v>714755</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>694330</v>
+        <v>697226</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>729918</v>
+        <v>731928</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8799599657747749</v>
+        <v>0.8799599657747748</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8548133806923914</v>
+        <v>0.8583794056200554</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8986274252583748</v>
+        <v>0.9011021001201286</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1541</v>
@@ -5266,19 +5266,19 @@
         <v>1453027</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1426909</v>
+        <v>1425493</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1477627</v>
+        <v>1476895</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8995223237375971</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8833533809702288</v>
+        <v>0.8824764910667022</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9147512307556154</v>
+        <v>0.9142982751778458</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>54856</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>41438</v>
+        <v>41422</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>72783</v>
+        <v>71772</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05547352902175682</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04190457040947542</v>
+        <v>0.04188831203447903</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07360255299765336</v>
+        <v>0.07258014292221966</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>207</v>
@@ -5391,19 +5391,19 @@
         <v>142868</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>122039</v>
+        <v>124329</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>160253</v>
+        <v>165320</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1278015343891832</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1091690008818084</v>
+        <v>0.1112174204080197</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1433530573837562</v>
+        <v>0.1478859680744707</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>270</v>
@@ -5412,19 +5412,19 @@
         <v>197723</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>174310</v>
+        <v>175252</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>221443</v>
+        <v>222718</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.09385238224576606</v>
+        <v>0.09385238224576604</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08273882323233306</v>
+        <v>0.08318621002809101</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1051114731938519</v>
+        <v>0.1057167109518591</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>934004</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>916077</v>
+        <v>917088</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>947422</v>
+        <v>947438</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9445264709782433</v>
+        <v>0.9445264709782432</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9263974470023465</v>
+        <v>0.9274198570777804</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9580954295905244</v>
+        <v>0.9581116879655209</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1353</v>
@@ -5462,19 +5462,19 @@
         <v>975019</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>957634</v>
+        <v>952567</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>995848</v>
+        <v>993558</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8721984656108168</v>
+        <v>0.8721984656108167</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8566469426162437</v>
+        <v>0.8521140319255295</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8908309991181921</v>
+        <v>0.8887825795919805</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2294</v>
@@ -5483,19 +5483,19 @@
         <v>1909025</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1885305</v>
+        <v>1884030</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1932438</v>
+        <v>1931496</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9061476177542338</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8948885268061483</v>
+        <v>0.8942832890481408</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9172611767676669</v>
+        <v>0.916813789971909</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>213109</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>182929</v>
+        <v>186174</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>244070</v>
+        <v>246636</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.06034418047230313</v>
+        <v>0.06034418047230312</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05179837951076721</v>
+        <v>0.05271725443414551</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06911117552960751</v>
+        <v>0.06983770990662558</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>657</v>
@@ -5608,19 +5608,19 @@
         <v>438009</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>406283</v>
+        <v>407704</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>471164</v>
+        <v>476848</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1173403636037138</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1088412833356539</v>
+        <v>0.1092219723121166</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.126222377323017</v>
+        <v>0.1277452635284213</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>881</v>
@@ -5629,19 +5629,19 @@
         <v>651118</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>603977</v>
+        <v>605254</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>695676</v>
+        <v>698827</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08963175711066647</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08314243605570952</v>
+        <v>0.08331820475284615</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09576551880940681</v>
+        <v>0.09619926319098088</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3318451</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3287490</v>
+        <v>3284924</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3348631</v>
+        <v>3345386</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9396558195276971</v>
+        <v>0.9396558195276968</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9308888244703925</v>
+        <v>0.9301622900933747</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9482016204892325</v>
+        <v>0.9472827455658545</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4702</v>
@@ -5679,19 +5679,19 @@
         <v>3294797</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3261642</v>
+        <v>3255958</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3326523</v>
+        <v>3325102</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8826596363962862</v>
+        <v>0.8826596363962861</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8737776226769832</v>
+        <v>0.8722547364715787</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8911587166643468</v>
+        <v>0.8907780276878834</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7852</v>
@@ -5700,19 +5700,19 @@
         <v>6613248</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6568690</v>
+        <v>6565539</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6660389</v>
+        <v>6659112</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9103682428893336</v>
+        <v>0.9103682428893333</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9042344811905934</v>
+        <v>0.9038007368090192</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9168575639442904</v>
+        <v>0.916681795247154</v>
       </c>
     </row>
     <row r="18">
